--- a/Sprint 1 samoocena zespołu.xlsx
+++ b/Sprint 1 samoocena zespołu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansmi\Documents\GIT\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410789F-68A0-4A01-94BA-5C7FEBC4B4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25365" windowHeight="13755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ocena" sheetId="1" r:id="rId1"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -155,22 +154,30 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="7">
@@ -641,23 +648,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="71.625" customWidth="1"/>
-    <col min="3" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -798,7 +805,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -840,7 +847,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -882,7 +889,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -922,7 +929,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -964,7 +971,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5.0999999999999996</v>
       </c>
@@ -1004,7 +1011,7 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>5.2</v>
       </c>
@@ -1046,7 +1053,7 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>5.3</v>
       </c>
@@ -1088,7 +1095,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>5.4</v>
       </c>
@@ -1128,7 +1135,7 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>6</v>
       </c>
@@ -1170,7 +1177,7 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>7.1</v>
       </c>
@@ -1184,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="4"/>
@@ -1210,7 +1217,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:28" ht="37.35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>8.1</v>
       </c>
@@ -1224,7 +1231,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="4"/>
@@ -1250,7 +1257,7 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:28" ht="37.35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>8.1999999999999993</v>
       </c>
@@ -1290,7 +1297,7 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" spans="1:28" ht="124.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>9.1</v>
       </c>
@@ -1330,7 +1337,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>1.1000000000000001</v>
       </c>
@@ -1344,13 +1351,13 @@
         <v>20</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>1.2</v>
       </c>
@@ -1368,7 +1375,7 @@
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>2.1</v>
       </c>
@@ -1386,7 +1393,7 @@
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>2.2000000000000002</v>
       </c>
@@ -1404,7 +1411,7 @@
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>1</v>
       </c>
@@ -1424,7 +1431,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>2</v>
       </c>
@@ -1444,7 +1451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>3</v>
       </c>
@@ -1460,7 +1467,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:28" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>4</v>
       </c>
@@ -8310,10 +8317,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{8E181247-1268-4CCF-914E-E2CAC503414D}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{E404BED2-15FD-4B98-AC35-5AACCADF9E1B}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{ECA357B2-4D65-4EBB-99A5-C110BD40A593}"/>
-    <hyperlink ref="F18" r:id="rId4" xr:uid="{FF395188-14A2-4E98-B0F8-61DC0E84A58E}"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
